--- a/Misc Files/DataList.xlsx
+++ b/Misc Files/DataList.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry\Documents\GitHub\EcocarRaspberryPi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry\Documents\GitHub\EcocarRaspberryPi\Misc Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18945" windowHeight="7275"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -864,7 +864,7 @@
   <dimension ref="A1:AE26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,8 +963,8 @@
         <v>0</v>
       </c>
       <c r="D2" t="str">
-        <f>"'"&amp;MID(B2,20,FIND(")",B2)-20)&amp;"' : x["&amp;A2&amp;"]"</f>
-        <v>'fc_error' : x[0]</v>
+        <f>""""&amp;MID(B2,20,FIND(")",B2)-20)&amp;""","</f>
+        <v>"fc_error",</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1041,8 +1041,8 @@
         <v>0</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D22" si="0">"'"&amp;MID(B3,20,FIND(")",B3)-20)&amp;"' : x["&amp;A3&amp;"]"</f>
-        <v>'fc_state' : x[2]</v>
+        <f t="shared" ref="D3:D22" si="0">""""&amp;MID(B3,20,FIND(")",B3)-20)&amp;""","</f>
+        <v>"fc_state",</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_purge_count' : x[4]</v>
+        <v>"fc_purge_count",</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_time_between_last_purges' : x[6]</v>
+        <v>"fc_time_between_last_purges",</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="24" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_energy_since_last_purge' : x[8]</v>
+        <v>"fc_energy_since_last_purge",</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="24" x14ac:dyDescent="0.25">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_total_energy' : x[10]</v>
+        <v>"fc_total_energy",</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="24" x14ac:dyDescent="0.25">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_charge_since_last_purge' : x[12]</v>
+        <v>"fc_charge_since_last_purge",</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="24" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_total_charge' : x[14]</v>
+        <v>"fc_total_charge",</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_volt' : x[16]</v>
+        <v>"fc_volt",</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_curr' : x[18]</v>
+        <v>"fc_curr",</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_capvolt' : x[20]</v>
+        <v>"fc_capvolt",</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_temp' : x[22]</v>
+        <v>"fc_temp",</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_opttemp' : x[24]</v>
+        <v>"fc_opttemp",</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_pres' : x[26]</v>
+        <v>"fc_pres",</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="24" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_fan_speed' : x[28]</v>
+        <v>"fc_fan_speed",</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="24" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_start_relay' : x[30]</v>
+        <v>"fc_start_relay",</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="24" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_res_relay' : x[32]</v>
+        <v>"fc_res_relay",</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="24" x14ac:dyDescent="0.25">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_cap_relay' : x[34]</v>
+        <v>"fc_cap_relay",</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="24" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_motor_relay' : x[36]</v>
+        <v>"fc_motor_relay",</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="24" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_purge_valve' : x[38]</v>
+        <v>"fc_purge_valve",</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>'fc_h2_valve' : x[40]</v>
+        <v>"fc_h2_valve",</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1470,5 +1470,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>